--- a/Programação em microinformatica/Testes/FIs (1).xlsx
+++ b/Programação em microinformatica/Testes/FIs (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\FATEC---Aulas\Programação em microinformatica\Testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A31DE30-71E9-4724-A179-A98FC0954930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14E50D1-F25F-431A-956F-D72EB01C1137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{BF33A724-E110-47D1-A0A2-83DF01B79837}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF33A724-E110-47D1-A0A2-83DF01B79837}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
   <si>
     <t>JANEIRO</t>
   </si>
@@ -651,7 +651,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{3AC58734-3440-453A-A464-AA0119077FDD}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -785,25 +801,25 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>10.06</v>
-    <v>9.5299999999999994</v>
+    <v>10.02</v>
+    <v>9.19</v>
     <v>BVMF</v>
-    <v>10.029999999999999</v>
-    <v>10.01</v>
+    <v>9.4700000000000006</v>
+    <v>9.19</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>10</v>
-    <v>45541.958460648151</v>
+    <v>9.42</v>
+    <v>45600.880311596877</v>
     <v>0</v>
     <v>BRL</v>
     <v>MAXI RENDA FII ETF</v>
-    <v>10.029999999999999</v>
-    <v>10.02</v>
+    <v>9.44</v>
+    <v>9.27</v>
     <v>MXRF11</v>
     <v>Fundos mais negociados</v>
     <v>MAXI RENDA FII ETF (BVMF:MXRF11)</v>
-    <v>0.02</v>
-    <v>2E-3</v>
-    <v>1306986</v>
+    <v>-0.15</v>
+    <v>-1.5924000000000001E-2</v>
+    <v>4267846</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -825,25 +841,25 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>8.42</v>
-    <v>7.08</v>
+    <v>8.27</v>
+    <v>7.16</v>
     <v>BVMF</v>
-    <v>8.11</v>
-    <v>8.06</v>
+    <v>7.43</v>
+    <v>7.31</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>8.08</v>
-    <v>45541.958460648151</v>
+    <v>7.37</v>
+    <v>45600.878472800781</v>
     <v>3</v>
     <v>BRL</v>
     <v>KILIMA FI EM COTAS FDO IMOB SUNO 30</v>
-    <v>8.08</v>
-    <v>8.08</v>
+    <v>7.35</v>
+    <v>7.43</v>
     <v>KISU11</v>
     <v>Fundos mais negociados</v>
     <v>KILIMA FI EM COTAS FDO IMOB SUNO 30 (BVMF:KISU11)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>74150</v>
+    <v>0.06</v>
+    <v>8.1410000000000007E-3</v>
+    <v>78743</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -865,25 +881,25 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>58.11</v>
-    <v>48.17</v>
+    <v>56.76</v>
+    <v>43.02</v>
     <v>BVMF</v>
-    <v>50.21</v>
-    <v>49.55</v>
+    <v>43.75</v>
+    <v>43.1</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>50.15</v>
-    <v>45541.958460648151</v>
+    <v>43.61</v>
+    <v>45600.892418981479</v>
     <v>6</v>
     <v>BRL</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT</v>
-    <v>50.1</v>
-    <v>49.97</v>
+    <v>43.61</v>
+    <v>43.17</v>
     <v>BRCR11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB BTG PACTUAL CORP F REIT (BVMF:BRCR11)</v>
-    <v>-0.18</v>
-    <v>-3.5890000000000002E-3</v>
-    <v>31059</v>
+    <v>-0.44</v>
+    <v>-1.0088999999999999E-2</v>
+    <v>50160</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -905,25 +921,25 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>3.76</v>
-    <v>1.45</v>
+    <v>3.73</v>
+    <v>1.23</v>
     <v>BVMF</v>
-    <v>1.5</v>
-    <v>1.48</v>
+    <v>1.35</v>
+    <v>1.3</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>1.49</v>
-    <v>45541.958472222221</v>
+    <v>1.31</v>
+    <v>45600.871332094532</v>
     <v>9</v>
     <v>BRL</v>
     <v>FDO INV IMOB FII CENESP CF</v>
-    <v>1.49</v>
-    <v>1.49</v>
+    <v>1.31</v>
+    <v>1.3</v>
     <v>CNES11</v>
     <v>Fundos mais negociados</v>
     <v>FDO INV IMOB FII CENESP CF (BVMF:CNES11)</v>
-    <v>0</v>
-    <v>0</v>
-    <v>78534</v>
+    <v>-0.01</v>
+    <v>-7.6339999999999993E-3</v>
+    <v>45791</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -945,25 +961,25 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>47.56</v>
-    <v>33.979999999999997</v>
+    <v>46.43</v>
+    <v>32.5</v>
     <v>BVMF</v>
-    <v>39.18</v>
-    <v>38.65</v>
+    <v>32.99</v>
+    <v>32.5</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>39.03</v>
-    <v>45541.958460648151</v>
+    <v>32.65</v>
+    <v>45600.879166921091</v>
     <v>12</v>
     <v>BRL</v>
     <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF</v>
-    <v>39.049999999999997</v>
-    <v>38.85</v>
+    <v>32.6</v>
+    <v>32.659999999999997</v>
     <v>DEVA11</v>
     <v>Fundos mais negociados</v>
     <v>DEVANT RECEBIVEIS IMOBILIARIOS FII CF (BVMF:DEVA11)</v>
-    <v>-0.18</v>
-    <v>-4.6119999999999998E-3</v>
-    <v>37502</v>
+    <v>0.01</v>
+    <v>3.0630000000000002E-4</v>
+    <v>19731</v>
   </rv>
   <rv s="2">
     <v>13</v>
@@ -986,35 +1002,35 @@
     <v>Finance</v>
     <v>5</v>
     <v>10.89</v>
-    <v>5.65</v>
+    <v>5.42</v>
     <v>BVMF</v>
     <v>1253079000</v>
-    <v>6.1</v>
+    <v>6.63</v>
     <v>1954</v>
-    <v>5.94</v>
-    <v>1.1434</v>
+    <v>6.37</v>
+    <v>1.1356999999999999</v>
     <v>B3 - Brazil Stock Exchange</v>
-    <v>7421572000</v>
+    <v>7750435000</v>
     <v>As Usinas Siderúrgicas de Minas Gerais SA USIMINAS e suas subsidiárias, sociedades controladas em conjunto e coligadas têm por objeto a siderurgia e outras atividades relacionadas. As atividades da Companhia incluem extração de minério de ferro, transformação do aço, produção de bens de capital e logística. Atua em quatro segmentos: Siderurgia, Mineração e Logística, Transformação do Aço e Bens de Capital. Produz e comercializa diversos produtos e matérias-primas, como aços planos, minério de ferro, peças estampadas de aço para a indústria automotiva e produtos para a construção civil e a indústria de bens de capital. Presta serviços de transferência de tecnologia na atividade siderúrgica, na gestão de projetos e prestação de serviços na área da construção civil e indústria de bens de capital, transporte rodoviário de aços planos, galvanização a quente de aços, texturização e cilindros de cromo. Possui mais de duas usinas siderúrgicas no Brasil localizadas nas cidades de Ipatinga, Estado de Minas Gerais, e de Cubatão, Estado de São Paulo.</v>
     <v>BVMF</v>
-    <v>6.08</v>
+    <v>6.32</v>
     <v>51182</v>
-    <v>45541.958333333336</v>
+    <v>45600.895740740743</v>
     <v>15</v>
-    <v>12589570</v>
+    <v>15586120</v>
     <v>BRL</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS</v>
-    <v>6.08</v>
-    <v>5.99</v>
+    <v>6.4</v>
+    <v>6.56</v>
     <v>Avenida do Contorno, 6.594, Savassi, BELO HORIZONTE, MINAS GERAIS, 30.110-044 BR</v>
     <v>Metals &amp; Mining</v>
     <v>USIM5</v>
     <v>Ações</v>
     <v>Usinas Siderúrgicas de Minas Gerais S/A - USIMINAS (BVMF:USIM5)</v>
-    <v>-0.09</v>
-    <v>-1.4803E-2</v>
-    <v>11541300</v>
+    <v>0.24</v>
+    <v>3.7975000000000002E-2</v>
+    <v>11035200</v>
   </rv>
   <rv s="2">
     <v>16</v>
@@ -1500,6 +1516,27 @@
 </richStyleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F847BC3-F38C-463C-BDDA-1703C5088656}" name="Tabela1" displayName="Tabela1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F9" xr:uid="{7F847BC3-F38C-463C-BDDA-1703C5088656}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C9E27D88-4612-4D02-BBD8-CEA83BC5A253}" name="TIPO" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D799AD70-FB59-4517-AF41-0912B0F3922B}" name="RAZÃO SOCIAL" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9CC36C61-694D-4470-988E-745C006FC629}" name="TICKER">
+      <calculatedColumnFormula array="1">_FV(B2,"Símbolo do ticker",TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{72B94059-D3BF-43D6-912E-1322C241AF83}" name="PREÇO" dataDxfId="2">
+      <calculatedColumnFormula array="1">_FV(B2,"Preço")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4F87A758-B114-4628-8CB8-AC9468C56BE0}" name="COTAS"/>
+    <tableColumn id="6" xr3:uid="{9348E2F1-5A2C-49D7-8B95-CFB7212A02EE}" name="VALOR" dataDxfId="1">
+      <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1817,23 +1854,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF54120-4052-4D0C-A0B7-D55C5E12D7D7}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -1864,23 +1901,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2">_FV(B2,"Símbolo do ticker",TRUE)</f>
+        <f t="array" aca="1" ref="C2" ca="1">_FV(B2,"Símbolo do ticker",TRUE)</f>
         <v>MXRF11</v>
       </c>
       <c r="D2" s="7" cm="1">
-        <f t="array" ref="D2">_FV(B2,"Preço")</f>
-        <v>10.02</v>
+        <f t="array" aca="1" ref="D2" ca="1">_FV(B2,"Preço")</f>
+        <v>9.27</v>
       </c>
       <c r="E2">
         <v>87</v>
       </c>
       <c r="F2" s="7">
-        <f>D2*E2</f>
-        <v>871.74</v>
+        <f ca="1">D2*E2</f>
+        <v>806.49</v>
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1888,22 +1925,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="C3" t="str" cm="1">
-        <f t="array" ref="C3">_FV(B3,"Símbolo do ticker",TRUE)</f>
+        <f t="array" aca="1" ref="C3" ca="1">_FV(B3,"Símbolo do ticker",TRUE)</f>
         <v>KISU11</v>
       </c>
       <c r="D3" s="7" cm="1">
-        <f t="array" ref="D3">_FV(B3,"Preço")</f>
-        <v>8.08</v>
+        <f t="array" aca="1" ref="D3" ca="1">_FV(B3,"Preço")</f>
+        <v>7.43</v>
       </c>
       <c r="E3">
         <v>54</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F7" si="0">D3*E3</f>
-        <v>436.32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F3:F7" ca="1" si="0">D3*E3</f>
+        <v>401.21999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1911,22 +1948,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="C4" t="str" cm="1">
-        <f t="array" ref="C4">_FV(B4,"Símbolo do ticker",TRUE)</f>
+        <f t="array" aca="1" ref="C4" ca="1">_FV(B4,"Símbolo do ticker",TRUE)</f>
         <v>BRCR11</v>
       </c>
       <c r="D4" s="7" cm="1">
-        <f t="array" ref="D4">_FV(B4,"Preço")</f>
-        <v>49.97</v>
+        <f t="array" aca="1" ref="D4" ca="1">_FV(B4,"Preço")</f>
+        <v>43.17</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>199.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>172.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -1934,22 +1971,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="C5" t="str" cm="1">
-        <f t="array" ref="C5">_FV(B5,"Símbolo do ticker",TRUE)</f>
+        <f t="array" aca="1" ref="C5" ca="1">_FV(B5,"Símbolo do ticker",TRUE)</f>
         <v>CNES11</v>
       </c>
       <c r="D5" s="7" cm="1">
-        <f t="array" ref="D5">_FV(B5,"Preço")</f>
-        <v>1.49</v>
+        <f t="array" aca="1" ref="D5" ca="1">_FV(B5,"Preço")</f>
+        <v>1.3</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -1957,22 +1994,22 @@
         <v>#VALUE!</v>
       </c>
       <c r="C6" t="str" cm="1">
-        <f t="array" ref="C6">_FV(B6,"Símbolo do ticker",TRUE)</f>
+        <f t="array" aca="1" ref="C6" ca="1">_FV(B6,"Símbolo do ticker",TRUE)</f>
         <v>DEVA11</v>
       </c>
       <c r="D6" s="7" cm="1">
-        <f t="array" ref="D6">_FV(B6,"Preço")</f>
-        <v>38.85</v>
+        <f t="array" aca="1" ref="D6" ca="1">_FV(B6,"Preço")</f>
+        <v>32.659999999999997</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>77.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>65.319999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -1980,29 +2017,76 @@
         <v>#VALUE!</v>
       </c>
       <c r="C7" s="6" t="str" cm="1">
-        <f t="array" ref="C7">_FV(B7,"Símbolo do ticker",TRUE)</f>
+        <f t="array" aca="1" ref="C7" ca="1">_FV(B7,"Símbolo do ticker",TRUE)</f>
         <v>USIM5</v>
       </c>
       <c r="D7" s="7" cm="1">
-        <f t="array" ref="D7">_FV(B7,"Preço")</f>
-        <v>5.99</v>
+        <f t="array" aca="1" ref="D7" ca="1">_FV(B7,"Preço")</f>
+        <v>6.56</v>
       </c>
       <c r="E7">
         <v>63</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>377.37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>413.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_FV(B8,"Símbolo do ticker",TRUE)</f>
+        <v>USIM5</v>
+      </c>
+      <c r="D8" s="7" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">_FV(B8,"Preço")</f>
+        <v>6.56</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" ref="F8:F9" ca="1" si="1">D8*E8</f>
+        <v>419.84</v>
+      </c>
       <c r="G8" s="7">
-        <f>F2+F3+F4+F5+F6+F7</f>
-        <v>1968.9700000000003</v>
+        <f ca="1">F2+F3+F4+F5+F6+F7</f>
+        <v>1864.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="6" t="str" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">_FV(B9,"Símbolo do ticker",TRUE)</f>
+        <v>USIM5</v>
+      </c>
+      <c r="D9" s="7" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">_FV(B9,"Preço")</f>
+        <v>6.56</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>426.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2014,19 +2098,19 @@
       <selection activeCell="C4" sqref="C4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C4" s="24" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2043,7 +2127,7 @@
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -2095,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -2139,7 +2223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -2183,15 +2267,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="T7" t="str" cm="1">
-        <f t="array" ref="T7">_FV(S7,"Moeda")</f>
+        <f t="array" aca="1" ref="T7" ca="1">_FV(S7,"Moeda")</f>
         <v>BRL</v>
       </c>
       <c r="U7" s="7" cm="1">
-        <f t="array" ref="U7">_FV(S7,"Preço")</f>
-        <v>8.08</v>
-      </c>
-    </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
+        <f t="array" aca="1" ref="U7" ca="1">_FV(S7,"Preço")</f>
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -2235,7 +2319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -2279,7 +2363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -2335,12 +2419,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="24" t="s">
         <v>18</v>
       </c>
@@ -2357,7 +2441,7 @@
       <c r="N12" s="24"/>
       <c r="O12" s="24"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>0</v>
       </c>
@@ -2395,7 +2479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -2447,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -2488,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -2529,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -2570,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>16</v>
       </c>
@@ -2611,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>17</v>
       </c>
@@ -2717,14 +2801,14 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
       <c r="C2" s="18" t="s">
         <v>49</v>
@@ -2763,7 +2847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>61</v>
       </c>
@@ -2804,7 +2888,7 @@
         <v>31214.5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>62</v>
       </c>
@@ -2845,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>63</v>
       </c>
@@ -2886,7 +2970,7 @@
         <v>1783.38</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>70</v>
       </c>
@@ -2927,7 +3011,7 @@
         <v>2767.49</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>71</v>
       </c>
@@ -2968,7 +3052,7 @@
         <v>3065.19</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>72</v>
       </c>
@@ -3009,7 +3093,7 @@
         <v>12262.83</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>73</v>
       </c>
@@ -3050,7 +3134,7 @@
         <v>2688.99</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>64</v>
       </c>
@@ -3085,7 +3169,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>65</v>
       </c>
@@ -3120,7 +3204,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -3134,7 +3218,7 @@
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -3148,7 +3232,7 @@
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>66</v>
       </c>
@@ -3189,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>67</v>
       </c>
@@ -3230,7 +3314,7 @@
         <v>-48000</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>68</v>
       </c>
@@ -3271,7 +3355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>69</v>
       </c>
@@ -3312,7 +3396,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>29</v>
       </c>
@@ -3374,21 +3458,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32CEABC-4535-4CE7-88F8-F391BBAC9E91}">
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -3403,7 +3487,7 @@
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3417,7 +3501,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3431,7 +3515,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3445,7 +3529,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3459,7 +3543,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3473,7 +3557,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3487,7 +3571,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -3525,16 +3609,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3818A1-03BA-4358-96DA-EF36270CB3B6}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="12.77734375" customWidth="1"/>
+    <col min="1" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>74</v>
       </c>
@@ -3578,52 +3662,52 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>97</v>
       </c>
@@ -3642,18 +3726,18 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
@@ -3668,7 +3752,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
@@ -3697,7 +3781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>1</v>
       </c>
@@ -3724,7 +3808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>2</v>
       </c>
@@ -3751,7 +3835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>3</v>
       </c>
@@ -3778,7 +3862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>4</v>
       </c>
@@ -3805,7 +3889,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>5</v>
       </c>
@@ -3823,7 +3907,7 @@
         <v>1438.2</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>6</v>
       </c>
@@ -3841,7 +3925,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E12" s="11" t="s">
         <v>42</v>
       </c>
